--- a/docs/鍵盤設計規格_河洛拼音.xlsx
+++ b/docs/鍵盤設計規格_河洛拼音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8B55D57-2917-43EB-B605-5240B2FB5FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CBE0B6-BD87-4ECD-AA28-2F6A6AB12680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="2565" windowWidth="23280" windowHeight="11295" activeTab="1" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
   <sheets>
     <sheet name="使用按鍵解析" sheetId="9" r:id="rId1"/>
@@ -5524,6 +5524,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="16" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="73" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="73" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5542,21 +5575,6 @@
     <xf numFmtId="0" fontId="74" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="81" fillId="16" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5567,24 +5585,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="16" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="73" fillId="16" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8248,7 +8248,7 @@
   <dimension ref="B1:CX99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="V38" sqref="V38"/>
     </sheetView>
@@ -19947,66 +19947,66 @@
     </row>
     <row r="2" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="239"/>
-      <c r="B2" s="470" t="s">
+      <c r="B2" s="467" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="471"/>
-      <c r="D2" s="472"/>
-      <c r="E2" s="470" t="s">
+      <c r="C2" s="468"/>
+      <c r="D2" s="469"/>
+      <c r="E2" s="467" t="s">
         <v>540</v>
       </c>
-      <c r="F2" s="471"/>
-      <c r="G2" s="472"/>
-      <c r="H2" s="479" t="s">
+      <c r="F2" s="468"/>
+      <c r="G2" s="469"/>
+      <c r="H2" s="464" t="s">
         <v>541</v>
       </c>
-      <c r="I2" s="480"/>
-      <c r="J2" s="481"/>
-      <c r="K2" s="479" t="s">
+      <c r="I2" s="465"/>
+      <c r="J2" s="466"/>
+      <c r="K2" s="464" t="s">
         <v>542</v>
       </c>
-      <c r="L2" s="480"/>
-      <c r="M2" s="481"/>
-      <c r="N2" s="482">
+      <c r="L2" s="465"/>
+      <c r="M2" s="466"/>
+      <c r="N2" s="470">
         <v>0.05</v>
       </c>
-      <c r="O2" s="483"/>
-      <c r="P2" s="484"/>
-      <c r="Q2" s="479" t="s">
+      <c r="O2" s="471"/>
+      <c r="P2" s="472"/>
+      <c r="Q2" s="464" t="s">
         <v>543</v>
       </c>
-      <c r="R2" s="480"/>
-      <c r="S2" s="481"/>
-      <c r="T2" s="479" t="s">
+      <c r="R2" s="465"/>
+      <c r="S2" s="466"/>
+      <c r="T2" s="464" t="s">
         <v>544</v>
       </c>
-      <c r="U2" s="480"/>
-      <c r="V2" s="481"/>
-      <c r="W2" s="464" t="s">
+      <c r="U2" s="465"/>
+      <c r="V2" s="466"/>
+      <c r="W2" s="475" t="s">
         <v>545</v>
       </c>
-      <c r="X2" s="465"/>
-      <c r="Y2" s="466"/>
-      <c r="Z2" s="464" t="s">
+      <c r="X2" s="476"/>
+      <c r="Y2" s="477"/>
+      <c r="Z2" s="475" t="s">
         <v>546</v>
       </c>
-      <c r="AA2" s="465"/>
-      <c r="AB2" s="466"/>
-      <c r="AC2" s="464" t="s">
+      <c r="AA2" s="476"/>
+      <c r="AB2" s="477"/>
+      <c r="AC2" s="475" t="s">
         <v>547</v>
       </c>
-      <c r="AD2" s="465"/>
-      <c r="AE2" s="466"/>
-      <c r="AF2" s="467" t="s">
+      <c r="AD2" s="476"/>
+      <c r="AE2" s="477"/>
+      <c r="AF2" s="478" t="s">
         <v>548</v>
       </c>
-      <c r="AG2" s="468"/>
-      <c r="AH2" s="469"/>
-      <c r="AI2" s="467" t="s">
+      <c r="AG2" s="479"/>
+      <c r="AH2" s="480"/>
+      <c r="AI2" s="478" t="s">
         <v>549</v>
       </c>
-      <c r="AJ2" s="468"/>
-      <c r="AK2" s="469"/>
+      <c r="AJ2" s="479"/>
+      <c r="AK2" s="480"/>
       <c r="AL2" s="239"/>
       <c r="AM2" s="239"/>
       <c r="AN2" s="239"/>
@@ -20138,38 +20138,38 @@
       <c r="G4" s="271" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="475" t="s">
+      <c r="H4" s="481" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="476"/>
+      <c r="I4" s="482"/>
       <c r="J4" s="272" t="s">
         <v>552</v>
       </c>
-      <c r="K4" s="477" t="s">
+      <c r="K4" s="483" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="478"/>
+      <c r="L4" s="484"/>
       <c r="M4" s="272" t="s">
         <v>553</v>
       </c>
-      <c r="N4" s="475" t="s">
+      <c r="N4" s="481" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="476"/>
+      <c r="O4" s="482"/>
       <c r="P4" s="272" t="s">
         <v>554</v>
       </c>
-      <c r="Q4" s="477" t="s">
+      <c r="Q4" s="483" t="s">
         <v>106</v>
       </c>
-      <c r="R4" s="478"/>
+      <c r="R4" s="484"/>
       <c r="S4" s="272" t="s">
         <v>555</v>
       </c>
-      <c r="T4" s="475" t="s">
+      <c r="T4" s="481" t="s">
         <v>556</v>
       </c>
-      <c r="U4" s="476"/>
+      <c r="U4" s="482"/>
       <c r="V4" s="272" t="s">
         <v>557</v>
       </c>
@@ -20268,71 +20268,71 @@
     <row r="5" spans="1:75" s="147" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="239"/>
       <c r="B5" s="239"/>
-      <c r="C5" s="470" t="s">
+      <c r="C5" s="467" t="s">
         <v>558</v>
       </c>
-      <c r="D5" s="471"/>
-      <c r="E5" s="472"/>
-      <c r="F5" s="470" t="s">
+      <c r="D5" s="468"/>
+      <c r="E5" s="469"/>
+      <c r="F5" s="467" t="s">
         <v>559</v>
       </c>
-      <c r="G5" s="471"/>
-      <c r="H5" s="472"/>
-      <c r="I5" s="470" t="s">
+      <c r="G5" s="468"/>
+      <c r="H5" s="469"/>
+      <c r="I5" s="467" t="s">
         <v>322</v>
       </c>
-      <c r="J5" s="471"/>
-      <c r="K5" s="472"/>
-      <c r="L5" s="470" t="s">
+      <c r="J5" s="468"/>
+      <c r="K5" s="469"/>
+      <c r="L5" s="467" t="s">
         <v>560</v>
       </c>
-      <c r="M5" s="471"/>
-      <c r="N5" s="472"/>
-      <c r="O5" s="470" t="s">
+      <c r="M5" s="468"/>
+      <c r="N5" s="469"/>
+      <c r="O5" s="467" t="s">
         <v>408</v>
       </c>
-      <c r="P5" s="471"/>
-      <c r="Q5" s="472"/>
-      <c r="R5" s="470" t="s">
+      <c r="P5" s="468"/>
+      <c r="Q5" s="469"/>
+      <c r="R5" s="467" t="s">
         <v>447</v>
       </c>
-      <c r="S5" s="471"/>
-      <c r="T5" s="472"/>
-      <c r="U5" s="464" t="s">
+      <c r="S5" s="468"/>
+      <c r="T5" s="469"/>
+      <c r="U5" s="475" t="s">
         <v>259</v>
       </c>
-      <c r="V5" s="465"/>
-      <c r="W5" s="466"/>
-      <c r="X5" s="464" t="s">
+      <c r="V5" s="476"/>
+      <c r="W5" s="477"/>
+      <c r="X5" s="475" t="s">
         <v>275</v>
       </c>
-      <c r="Y5" s="465"/>
-      <c r="Z5" s="466"/>
-      <c r="AA5" s="464" t="s">
+      <c r="Y5" s="476"/>
+      <c r="Z5" s="477"/>
+      <c r="AA5" s="475" t="s">
         <v>267</v>
       </c>
-      <c r="AB5" s="465"/>
-      <c r="AC5" s="466"/>
-      <c r="AD5" s="464" t="s">
+      <c r="AB5" s="476"/>
+      <c r="AC5" s="477"/>
+      <c r="AD5" s="475" t="s">
         <v>400</v>
       </c>
-      <c r="AE5" s="465"/>
-      <c r="AF5" s="466"/>
-      <c r="AG5" s="464" t="s">
+      <c r="AE5" s="476"/>
+      <c r="AF5" s="477"/>
+      <c r="AG5" s="475" t="s">
         <v>561</v>
       </c>
-      <c r="AH5" s="465"/>
-      <c r="AI5" s="466"/>
-      <c r="AJ5" s="464" t="s">
+      <c r="AH5" s="476"/>
+      <c r="AI5" s="477"/>
+      <c r="AJ5" s="475" t="s">
         <v>562</v>
       </c>
-      <c r="AK5" s="465"/>
-      <c r="AL5" s="466"/>
-      <c r="AM5" s="467" t="s">
+      <c r="AK5" s="476"/>
+      <c r="AL5" s="477"/>
+      <c r="AM5" s="478" t="s">
         <v>563</v>
       </c>
-      <c r="AN5" s="468"/>
-      <c r="AO5" s="469"/>
+      <c r="AN5" s="479"/>
+      <c r="AO5" s="480"/>
       <c r="AP5" s="239"/>
       <c r="AQ5" s="239"/>
       <c r="AR5" s="240"/>
@@ -20642,61 +20642,61 @@
       <c r="A8" s="239"/>
       <c r="B8" s="239"/>
       <c r="C8" s="289"/>
-      <c r="D8" s="470" t="s">
+      <c r="D8" s="467" t="s">
         <v>401</v>
       </c>
-      <c r="E8" s="471"/>
-      <c r="F8" s="472"/>
-      <c r="G8" s="470" t="s">
+      <c r="E8" s="468"/>
+      <c r="F8" s="469"/>
+      <c r="G8" s="467" t="s">
         <v>460</v>
       </c>
-      <c r="H8" s="471"/>
-      <c r="I8" s="472"/>
-      <c r="J8" s="470" t="s">
+      <c r="H8" s="468"/>
+      <c r="I8" s="469"/>
+      <c r="J8" s="467" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="471"/>
-      <c r="L8" s="472"/>
-      <c r="M8" s="470" t="s">
+      <c r="K8" s="468"/>
+      <c r="L8" s="469"/>
+      <c r="M8" s="467" t="s">
         <v>566</v>
       </c>
-      <c r="N8" s="471"/>
-      <c r="O8" s="472"/>
-      <c r="P8" s="470" t="s">
+      <c r="N8" s="468"/>
+      <c r="O8" s="469"/>
+      <c r="P8" s="467" t="s">
         <v>141</v>
       </c>
-      <c r="Q8" s="471"/>
-      <c r="R8" s="472"/>
-      <c r="S8" s="470" t="s">
+      <c r="Q8" s="468"/>
+      <c r="R8" s="469"/>
+      <c r="S8" s="467" t="s">
         <v>454</v>
       </c>
-      <c r="T8" s="471"/>
-      <c r="U8" s="472"/>
-      <c r="V8" s="464" t="s">
+      <c r="T8" s="468"/>
+      <c r="U8" s="469"/>
+      <c r="V8" s="475" t="s">
         <v>249</v>
       </c>
-      <c r="W8" s="465"/>
-      <c r="X8" s="466"/>
-      <c r="Y8" s="464" t="s">
+      <c r="W8" s="476"/>
+      <c r="X8" s="477"/>
+      <c r="Y8" s="475" t="s">
         <v>425</v>
       </c>
-      <c r="Z8" s="465"/>
-      <c r="AA8" s="466"/>
-      <c r="AB8" s="464" t="s">
+      <c r="Z8" s="476"/>
+      <c r="AA8" s="477"/>
+      <c r="AB8" s="475" t="s">
         <v>231</v>
       </c>
-      <c r="AC8" s="465"/>
-      <c r="AD8" s="466"/>
-      <c r="AE8" s="464" t="s">
+      <c r="AC8" s="476"/>
+      <c r="AD8" s="477"/>
+      <c r="AE8" s="475" t="s">
         <v>567</v>
       </c>
-      <c r="AF8" s="465"/>
-      <c r="AG8" s="466"/>
-      <c r="AH8" s="467" t="s">
+      <c r="AF8" s="476"/>
+      <c r="AG8" s="477"/>
+      <c r="AH8" s="478" t="s">
         <v>568</v>
       </c>
-      <c r="AI8" s="468"/>
-      <c r="AJ8" s="469"/>
+      <c r="AI8" s="479"/>
+      <c r="AJ8" s="480"/>
       <c r="AK8" s="239"/>
       <c r="AL8" s="239"/>
       <c r="AM8" s="239"/>
@@ -21010,56 +21010,56 @@
       <c r="B11" s="239"/>
       <c r="C11" s="239"/>
       <c r="D11" s="239"/>
-      <c r="E11" s="470" t="s">
+      <c r="E11" s="467" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="471"/>
-      <c r="G11" s="472"/>
-      <c r="H11" s="470" t="s">
+      <c r="F11" s="468"/>
+      <c r="G11" s="469"/>
+      <c r="H11" s="467" t="s">
         <v>569</v>
       </c>
-      <c r="I11" s="471"/>
-      <c r="J11" s="472"/>
-      <c r="K11" s="470" t="s">
+      <c r="I11" s="468"/>
+      <c r="J11" s="469"/>
+      <c r="K11" s="467" t="s">
         <v>456</v>
       </c>
-      <c r="L11" s="471"/>
-      <c r="M11" s="472"/>
-      <c r="N11" s="470" t="s">
+      <c r="L11" s="468"/>
+      <c r="M11" s="469"/>
+      <c r="N11" s="467" t="s">
         <v>570</v>
       </c>
-      <c r="O11" s="471"/>
-      <c r="P11" s="472"/>
-      <c r="Q11" s="470" t="s">
+      <c r="O11" s="468"/>
+      <c r="P11" s="469"/>
+      <c r="Q11" s="467" t="s">
         <v>144</v>
       </c>
-      <c r="R11" s="471"/>
-      <c r="S11" s="472"/>
-      <c r="T11" s="470" t="s">
+      <c r="R11" s="468"/>
+      <c r="S11" s="469"/>
+      <c r="T11" s="467" t="s">
         <v>571</v>
       </c>
-      <c r="U11" s="471"/>
-      <c r="V11" s="472"/>
-      <c r="W11" s="464" t="s">
+      <c r="U11" s="468"/>
+      <c r="V11" s="469"/>
+      <c r="W11" s="475" t="s">
         <v>525</v>
       </c>
-      <c r="X11" s="465"/>
-      <c r="Y11" s="466"/>
-      <c r="Z11" s="464" t="s">
+      <c r="X11" s="476"/>
+      <c r="Y11" s="477"/>
+      <c r="Z11" s="475" t="s">
         <v>572</v>
       </c>
-      <c r="AA11" s="465"/>
-      <c r="AB11" s="466"/>
-      <c r="AC11" s="464" t="s">
+      <c r="AA11" s="476"/>
+      <c r="AB11" s="477"/>
+      <c r="AC11" s="475" t="s">
         <v>573</v>
       </c>
-      <c r="AD11" s="465"/>
-      <c r="AE11" s="466"/>
-      <c r="AF11" s="467" t="s">
+      <c r="AD11" s="476"/>
+      <c r="AE11" s="477"/>
+      <c r="AF11" s="478" t="s">
         <v>574</v>
       </c>
-      <c r="AG11" s="468"/>
-      <c r="AH11" s="469"/>
+      <c r="AG11" s="479"/>
+      <c r="AH11" s="480"/>
       <c r="AI11" s="239"/>
       <c r="AJ11" s="239"/>
       <c r="AK11" s="239"/>
@@ -27118,52 +27118,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -27174,6 +27128,52 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
